--- a/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03601426691084857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02638656016076354</v>
+        <v>0.02638656016076355</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06844668636432877</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009472149321983273</v>
+        <v>0.009359733641491912</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03565209631186095</v>
+        <v>0.03586929693627205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01921091066964138</v>
+        <v>0.01743892714334934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01347927335385885</v>
+        <v>0.0122576730001783</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04012993334855749</v>
+        <v>0.03945596628731812</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05629058961719327</v>
+        <v>0.05484371123159244</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04118999647255488</v>
+        <v>0.0426077333197728</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02385916785634013</v>
+        <v>0.02350172590113767</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02998000531338344</v>
+        <v>0.03044927819766299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05236021776710702</v>
+        <v>0.05151061270777481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03463990737674848</v>
+        <v>0.03439084475246072</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02199386572637755</v>
+        <v>0.02268152446494737</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04197157980123353</v>
+        <v>0.0446082793062015</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.100527862988902</v>
+        <v>0.09955605857753497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06676733194203965</v>
+        <v>0.06540251432379954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04854273902821057</v>
+        <v>0.04733680557086087</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1029423317464541</v>
+        <v>0.1109778429162135</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1256367725300077</v>
+        <v>0.1258246496481602</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1009998008435583</v>
+        <v>0.1059104705971912</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05320388169267112</v>
+        <v>0.05359056442948004</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06929742184028558</v>
+        <v>0.06565472403380468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09776410631973409</v>
+        <v>0.09806376196065632</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07224838882467059</v>
+        <v>0.07585713602033349</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04501140605125514</v>
+        <v>0.04649040745087261</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01244847544765607</v>
+        <v>0.0134846823558731</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01982264004382078</v>
+        <v>0.01872379405164613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01835534914833458</v>
+        <v>0.0191061389993341</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04044511363840358</v>
+        <v>0.04129605778006108</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04709230016328454</v>
+        <v>0.04640298885765645</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06063880031431809</v>
+        <v>0.0622967440956569</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05014336444952992</v>
+        <v>0.04912421636518236</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07636470011978178</v>
+        <v>0.07738755464649288</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0333933806312521</v>
+        <v>0.03225938430279417</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04660361075722117</v>
+        <v>0.0457728713570171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03854904643600403</v>
+        <v>0.03908736308878813</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06330517951091377</v>
+        <v>0.06383251112240548</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04039547182334677</v>
+        <v>0.04210628513254548</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06103573770974813</v>
+        <v>0.06231023577357387</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05040889658383661</v>
+        <v>0.05089490312621858</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09004768940553713</v>
+        <v>0.08618920481457373</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09090342811074402</v>
+        <v>0.08971274728471952</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1128364429156958</v>
+        <v>0.11301857013025</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09737220058933846</v>
+        <v>0.09726156079087105</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1179297511759413</v>
+        <v>0.1178367045240951</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05914363793977117</v>
+        <v>0.05891888185043601</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08009500135291032</v>
+        <v>0.07989514031381488</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06609588554246242</v>
+        <v>0.06734382488202202</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09424486151758116</v>
+        <v>0.09542205201678919</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04489964898240415</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0614749052103187</v>
+        <v>0.06147490521031871</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009066178909580013</v>
+        <v>0.006694449388607289</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01845732357068104</v>
+        <v>0.01860387572972378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0147504024855943</v>
+        <v>0.01557795473423414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02650822122982237</v>
+        <v>0.02791745444259005</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01171038946273866</v>
+        <v>0.01157026585867114</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03682655469540308</v>
+        <v>0.03462803214380503</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05507547517609249</v>
+        <v>0.05663452309135098</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004669547424658911</v>
+        <v>0.004562722962564553</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01958062701617099</v>
+        <v>0.01879557470250717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03126807239471789</v>
+        <v>0.02934910386643133</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04682099645567261</v>
+        <v>0.04805808567103391</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04179590446918365</v>
+        <v>0.03848838069669494</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07034260197032555</v>
+        <v>0.06918804521274291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05847771963406723</v>
+        <v>0.05847920100099967</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0727474627691107</v>
+        <v>0.07057289816252886</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01588709996662261</v>
+        <v>0.01513621063169874</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04579600546378327</v>
+        <v>0.04517935817323871</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08789929728076171</v>
+        <v>0.08488004275293402</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09850174045964323</v>
+        <v>0.09919810951993631</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02179215889847415</v>
+        <v>0.02077140523603799</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.048747643030154</v>
+        <v>0.04859636485324484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06433567793129907</v>
+        <v>0.06346410420760709</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07799865578470863</v>
+        <v>0.08020119210554492</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002947670611330444</v>
+        <v>0.004557007946678096</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01100954374750095</v>
+        <v>0.01106079438872761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02533573289296646</v>
+        <v>0.02553770629883406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009087764119044127</v>
+        <v>0.008227713738289667</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02228713676558131</v>
+        <v>0.02238359272804541</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07373527539528578</v>
+        <v>0.07560082509737071</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05862209505498639</v>
+        <v>0.05879523955290149</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02545446290297802</v>
+        <v>0.0247836765912157</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01580400964449262</v>
+        <v>0.01548396851714582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04825108438533465</v>
+        <v>0.04860160872730366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04865109561854709</v>
+        <v>0.04646946031332432</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0203498840023054</v>
+        <v>0.02004157719137914</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03407826997143723</v>
+        <v>0.03458144007243994</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05138959208664541</v>
+        <v>0.04902322549645417</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0680827122677973</v>
+        <v>0.07058613833059801</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04699965026356379</v>
+        <v>0.04966523533861878</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05980777032199013</v>
+        <v>0.06057572989028948</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1413800046724558</v>
+        <v>0.136539814766442</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1176512290882784</v>
+        <v>0.1144447865760518</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05768342418934946</v>
+        <v>0.05825342401034984</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.040034888708541</v>
+        <v>0.03951466491401574</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08519736556725173</v>
+        <v>0.0862244818840044</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08506911015802557</v>
+        <v>0.085375979165593</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04740962040493641</v>
+        <v>0.04452733085356495</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008792242392745106</v>
+        <v>0.008539760538014324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01873667601109309</v>
+        <v>0.01769254742093748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01848697301660475</v>
+        <v>0.02228608184682734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01201347771338324</v>
+        <v>0.0123254389918104</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03085131465238958</v>
+        <v>0.03238312376628584</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1157273132241356</v>
+        <v>0.1124719019742111</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08977736405129391</v>
+        <v>0.08629942655417258</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07672503445980197</v>
+        <v>0.0786410769118558</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0232272105807749</v>
+        <v>0.02419561114044337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07014738183006569</v>
+        <v>0.07331140539202839</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06225641077009778</v>
+        <v>0.06381294553237273</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0504038775355498</v>
+        <v>0.05071456412817104</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04750760011349179</v>
+        <v>0.05015541010632207</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.078925537428047</v>
+        <v>0.07830323297426059</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07695586407673376</v>
+        <v>0.08465830879637605</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04576875320103732</v>
+        <v>0.04676989323389406</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0957270778464366</v>
+        <v>0.09990980358333482</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2125461274003999</v>
+        <v>0.2088414433207658</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1764022969366549</v>
+        <v>0.1832583312541337</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1284116254782463</v>
+        <v>0.1268982398590537</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06203342671253186</v>
+        <v>0.06330556391978552</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1293413402932923</v>
+        <v>0.1335388062524129</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1167016492589152</v>
+        <v>0.1155711367070869</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0824967291563964</v>
+        <v>0.08130488381040402</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.03159731926998654</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05032425272732053</v>
+        <v>0.05032425272732054</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.03294586468880859</v>
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01078147376762345</v>
+        <v>0.01119360997087015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01433644505045781</v>
+        <v>0.01408940534184903</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03186461916154933</v>
+        <v>0.03184504529326581</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01542323592977967</v>
+        <v>0.01527737760308177</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02928858555241945</v>
+        <v>0.03065245216003701</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02885741697295637</v>
+        <v>0.03068529592594157</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08145484448368764</v>
+        <v>0.08217668411372625</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0108900014637015</v>
+        <v>0.01052923372481631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02581336680605108</v>
+        <v>0.02567365390369447</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02692939038705139</v>
+        <v>0.02667119814927537</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0626644898781572</v>
+        <v>0.06201500628921305</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02134069500852692</v>
+        <v>0.02123988270377072</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04801505314066285</v>
+        <v>0.04894271090117883</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06513471128030691</v>
+        <v>0.06204470886368284</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07518701020616748</v>
+        <v>0.07648371283486426</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06536682346763623</v>
+        <v>0.05988252301323642</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08842104998800988</v>
+        <v>0.08519840368442885</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08613826924551418</v>
+        <v>0.0861580200614617</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1367141127513824</v>
+        <v>0.1365489309453389</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03508822603448246</v>
+        <v>0.03516793089353513</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05995156629472133</v>
+        <v>0.0614030212320806</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06476036726226203</v>
+        <v>0.06142955934412671</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0971471862319558</v>
+        <v>0.09620385479099675</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.0535995670147031</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.06559346984700495</v>
+        <v>0.06559346984700497</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01595943889114543</v>
+        <v>0.01472428752071528</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01782404265918136</v>
+        <v>0.01808377315499277</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02218358176632501</v>
+        <v>0.02264777422482618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02439134113423483</v>
+        <v>0.02605764088154401</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03504782611071242</v>
+        <v>0.03553243661562789</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02734446458129926</v>
+        <v>0.02742380714395633</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05210062215303917</v>
+        <v>0.05199399105785254</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07278810029493873</v>
+        <v>0.07259291520161276</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02839864532048639</v>
+        <v>0.02848647074594869</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02677618205799235</v>
+        <v>0.0255246441022317</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04120842568290203</v>
+        <v>0.04234422472063986</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05456693926584786</v>
+        <v>0.05451458395179735</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04197680205029085</v>
+        <v>0.04199117137367744</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0472404344574783</v>
+        <v>0.04839527710343627</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05330012974340873</v>
+        <v>0.05242822657302094</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05452239434240285</v>
+        <v>0.05518874530625267</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06882286561649414</v>
+        <v>0.06967705332860571</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06002242481506641</v>
+        <v>0.05985412074793268</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09420666109509178</v>
+        <v>0.09665094344267547</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1101036456903265</v>
+        <v>0.1104775314412748</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0499577216954435</v>
+        <v>0.04959616890303691</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0481866404312325</v>
+        <v>0.04813573485000174</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06897980354617002</v>
+        <v>0.06781882969721871</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07898462595087433</v>
+        <v>0.07799902618851266</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.08383734987376025</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1027150402787593</v>
+        <v>0.1027150402787594</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.06115783377461313</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0310415433938313</v>
+        <v>0.03142505751727563</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01632986281552625</v>
+        <v>0.01669641173015642</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02090863006328395</v>
+        <v>0.02149460640742902</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03946648163936994</v>
+        <v>0.03859481558618424</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05886806194856278</v>
+        <v>0.05823933505278465</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05463319149264273</v>
+        <v>0.05522917057639834</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06482817884367474</v>
+        <v>0.06432016071510423</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08541199155171302</v>
+        <v>0.08536657607119937</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05023177272966266</v>
+        <v>0.05038273148417274</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03927883979553126</v>
+        <v>0.03872509050512254</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04736834152298603</v>
+        <v>0.04744288697527574</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06667389999115762</v>
+        <v>0.0669529430095407</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06236490452492947</v>
+        <v>0.0616073553596377</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04318971246582956</v>
+        <v>0.04311045853679244</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0480259983041124</v>
+        <v>0.04607392771744175</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06874239192306497</v>
+        <v>0.06813489325102438</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09608992939086708</v>
+        <v>0.09872434633850811</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09203926196443511</v>
+        <v>0.08914404437301297</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1052156359177645</v>
+        <v>0.1053559731669765</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1211052378601425</v>
+        <v>0.1228975189289348</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07587154139195744</v>
+        <v>0.07451569665750939</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06126947934136653</v>
+        <v>0.06188817502191227</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07302804961871777</v>
+        <v>0.07216738805533174</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08961500880424572</v>
+        <v>0.09038036700723337</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.03481221709572157</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.04260220142732761</v>
+        <v>0.0426022014273276</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.05330795268054919</v>
@@ -1773,7 +1773,7 @@
         <v>0.07635883703637372</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.08416877020835269</v>
+        <v>0.08416877020835266</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.03977475787123594</v>
@@ -1785,7 +1785,7 @@
         <v>0.05603516335786481</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.06395881662727775</v>
+        <v>0.06395881662727776</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02673937484947642</v>
+        <v>0.02713357235955597</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02908121080103974</v>
+        <v>0.02891074587079791</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03620433916357802</v>
+        <v>0.03639710590812335</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06338367757465636</v>
+        <v>0.06230076659572482</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06721206316001878</v>
+        <v>0.06719145952517991</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07720123231909302</v>
+        <v>0.07788883169725812</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.04755216702335444</v>
+        <v>0.0472300922148439</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.05058417854181586</v>
+        <v>0.05083381690630415</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.05921133505176703</v>
+        <v>0.05873353348297853</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04079713072250962</v>
+        <v>0.04088874018502649</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0414180542750661</v>
+        <v>0.04165267043984326</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04967828967545175</v>
+        <v>0.05037896737454911</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.08095250038921865</v>
+        <v>0.08042195249927023</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.0854514299740696</v>
+        <v>0.08623277123905633</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09178685948479684</v>
+        <v>0.09242167545615469</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.0588560159562462</v>
+        <v>0.05836757455631206</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.06169786487479319</v>
+        <v>0.06145175399198887</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06920344312363322</v>
+        <v>0.06915528454445774</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2586</v>
+        <v>2555</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10417</v>
+        <v>10481</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5643</v>
+        <v>5123</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4298</v>
+        <v>3908</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10467</v>
+        <v>10292</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15779</v>
+        <v>15373</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11892</v>
+        <v>12301</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7541</v>
+        <v>7428</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16005</v>
+        <v>16255</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>29977</v>
+        <v>29490</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>20176</v>
+        <v>20031</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13964</v>
+        <v>14401</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11459</v>
+        <v>12179</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29374</v>
+        <v>29090</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19614</v>
+        <v>19213</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15478</v>
+        <v>15093</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26851</v>
+        <v>28947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35217</v>
+        <v>35270</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29159</v>
+        <v>30577</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16816</v>
+        <v>16938</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36994</v>
+        <v>35050</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>55971</v>
+        <v>56142</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42082</v>
+        <v>44184</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28578</v>
+        <v>29517</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6138</v>
+        <v>6649</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10021</v>
+        <v>9465</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9225</v>
+        <v>9602</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21422</v>
+        <v>21873</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23732</v>
+        <v>23385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31698</v>
+        <v>32564</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26229</v>
+        <v>25696</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>41635</v>
+        <v>42193</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>33294</v>
+        <v>32163</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>47921</v>
+        <v>47066</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>39538</v>
+        <v>40090</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>68045</v>
+        <v>68612</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19918</v>
+        <v>20762</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30855</v>
+        <v>31500</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25334</v>
+        <v>25579</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47695</v>
+        <v>45651</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45811</v>
+        <v>45211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>58983</v>
+        <v>59078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50934</v>
+        <v>50876</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>64297</v>
+        <v>64246</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>58968</v>
+        <v>58744</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82358</v>
+        <v>82153</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>67792</v>
+        <v>69072</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>101301</v>
+        <v>102567</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2891</v>
+        <v>2134</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5964</v>
+        <v>6011</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4699</v>
+        <v>4963</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8363</v>
+        <v>8808</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3993</v>
+        <v>3946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12385</v>
+        <v>11646</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19628</v>
+        <v>20183</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3055</v>
+        <v>2985</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13004</v>
+        <v>12483</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20477</v>
+        <v>19220</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31458</v>
+        <v>32289</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13326</v>
+        <v>12272</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22729</v>
+        <v>22356</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>18629</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22952</v>
+        <v>22266</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5329</v>
+        <v>5077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15617</v>
+        <v>15407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29561</v>
+        <v>28546</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35104</v>
+        <v>35352</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14258</v>
+        <v>13590</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>32375</v>
+        <v>32275</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42132</v>
+        <v>41561</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52406</v>
+        <v>53886</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1057</v>
+        <v>1634</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4117</v>
+        <v>4137</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9373</v>
+        <v>9448</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3391</v>
+        <v>3070</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8279</v>
+        <v>8315</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>28607</v>
+        <v>29331</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22703</v>
+        <v>22770</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10732</v>
+        <v>10450</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11539</v>
+        <v>11305</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>36765</v>
+        <v>37032</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>36841</v>
+        <v>35189</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>16174</v>
+        <v>15929</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12223</v>
+        <v>12403</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19219</v>
+        <v>18334</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25188</v>
+        <v>26114</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17538</v>
+        <v>18532</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22216</v>
+        <v>22501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>54852</v>
+        <v>52974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>45564</v>
+        <v>44323</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24321</v>
+        <v>24561</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>29231</v>
+        <v>28851</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>64917</v>
+        <v>65699</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>64418</v>
+        <v>64651</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>37680</v>
+        <v>35389</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1788</v>
+        <v>1736</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3984</v>
+        <v>3762</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3905</v>
+        <v>4707</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2471</v>
+        <v>2535</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6407</v>
+        <v>6725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>25413</v>
+        <v>24698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19624</v>
+        <v>18864</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17433</v>
+        <v>17868</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>9546</v>
+        <v>9944</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>30318</v>
+        <v>31686</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>26758</v>
+        <v>27427</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>21819</v>
+        <v>21953</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9659</v>
+        <v>10197</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16781</v>
+        <v>16649</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16255</v>
+        <v>17882</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9413</v>
+        <v>9619</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19879</v>
+        <v>20748</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46673</v>
+        <v>45860</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>38559</v>
+        <v>40058</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29177</v>
+        <v>28833</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25494</v>
+        <v>26017</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>55902</v>
+        <v>57717</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>50159</v>
+        <v>49673</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>35711</v>
+        <v>35195</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2954</v>
+        <v>3067</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3772</v>
+        <v>3707</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8626</v>
+        <v>8621</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4290</v>
+        <v>4249</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>8176</v>
+        <v>8556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7881</v>
+        <v>8381</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21484</v>
+        <v>21674</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5978</v>
+        <v>5780</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>14278</v>
+        <v>14201</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>14441</v>
+        <v>14302</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>33491</v>
+        <v>33144</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5779</v>
+        <v>5752</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13155</v>
+        <v>13409</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17138</v>
+        <v>16325</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20354</v>
+        <v>20705</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18181</v>
+        <v>16656</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>24682</v>
+        <v>23782</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>23526</v>
+        <v>23531</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>36058</v>
+        <v>36015</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19262</v>
+        <v>19306</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>33160</v>
+        <v>33963</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>34727</v>
+        <v>32941</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>51921</v>
+        <v>51417</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9815</v>
+        <v>9056</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>11814</v>
+        <v>11986</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14565</v>
+        <v>14870</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17554</v>
+        <v>18753</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22368</v>
+        <v>22677</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>18973</v>
+        <v>19028</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>36017</v>
+        <v>35943</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>56147</v>
+        <v>55997</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>35590</v>
+        <v>35701</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>36326</v>
+        <v>34628</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>55543</v>
+        <v>57074</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>81363</v>
+        <v>81285</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>25817</v>
+        <v>25826</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>31310</v>
+        <v>32076</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34995</v>
+        <v>34422</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>39239</v>
+        <v>39719</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>43924</v>
+        <v>44469</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>41647</v>
+        <v>41530</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>65124</v>
+        <v>66814</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>84932</v>
+        <v>85220</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>62609</v>
+        <v>62156</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>65372</v>
+        <v>65303</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>92975</v>
+        <v>91410</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>117771</v>
+        <v>116302</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>23057</v>
+        <v>23342</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>12688</v>
+        <v>12973</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>16279</v>
+        <v>16735</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>31497</v>
+        <v>30801</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>46124</v>
+        <v>45631</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>44945</v>
+        <v>45435</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>53559</v>
+        <v>53139</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>70892</v>
+        <v>70855</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>76668</v>
+        <v>76899</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>62832</v>
+        <v>61946</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>76014</v>
+        <v>76134</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>108550</v>
+        <v>109005</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>46323</v>
+        <v>45761</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>33557</v>
+        <v>33496</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>37392</v>
+        <v>35872</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>54861</v>
+        <v>54377</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>75288</v>
+        <v>77352</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>75718</v>
+        <v>73336</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>86926</v>
+        <v>87042</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>100518</v>
+        <v>102006</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>115802</v>
+        <v>113732</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>98009</v>
+        <v>98999</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>117192</v>
+        <v>115811</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>145900</v>
+        <v>147146</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>91480</v>
+        <v>92829</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>98712</v>
+        <v>98133</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>127848</v>
+        <v>128528</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>224840</v>
+        <v>220999</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>238236</v>
+        <v>238163</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>288087</v>
+        <v>290653</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>331366</v>
+        <v>329122</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>350998</v>
+        <v>352730</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>430047</v>
+        <v>426577</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>139574</v>
+        <v>139888</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>140587</v>
+        <v>141384</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>175428</v>
+        <v>177902</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>287162</v>
+        <v>285280</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>302886</v>
+        <v>305656</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>342515</v>
+        <v>344884</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>410136</v>
+        <v>406733</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>428115</v>
+        <v>426407</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>502619</v>
+        <v>502269</v>
       </c>
     </row>
     <row r="40">
